--- a/supplemental_material/SupplementalTable1.xlsx
+++ b/supplemental_material/SupplementalTable1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIG\RAN_homeoffice\Avaliacao\avaliacao-analises\supplemental_material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIG\RAN_homeoffice\Avaliacao\avaliacao-serpentes-2022-app\supplemental_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77F1673-AC08-4165-842A-8C65C0430628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2E88C0-9DCB-497D-A02A-DEDCE4C17CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="334">
   <si>
     <t>species</t>
   </si>
@@ -1056,6 +1056,9 @@
   </si>
   <si>
     <t>Guiana, Brasil, Colômbia, Equador, Peru, Bolívia</t>
+  </si>
+  <si>
+    <t>Thamnodynastes silvai</t>
   </si>
 </sst>
 </file>
@@ -1492,29 +1495,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC02D67-C176-4699-8582-771C0DA4D147}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="40.21875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="62.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -2378,6 +2388,11 @@
       </c>
       <c r="R22" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -14106,9 +14121,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B10E0FF-848A-4F47-A161-648B6DF7200A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B10E0FF-848A-4F47-A161-648B6DF7200A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f23f04ab-3e0e-4ee3-8535-a3b421d0a48e"/>
+    <ds:schemaRef ds:uri="cd12b94b-9541-4847-a231-c62e66ec9e26"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21162978-7555-47C8-8E0B-9CF8F0E08FB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21162978-7555-47C8-8E0B-9CF8F0E08FB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>